--- a/datasets/Premier_League/rounds/prox_partidas(naotratada).xlsx
+++ b/datasets/Premier_League/rounds/prox_partidas(naotratada).xlsx
@@ -436,72 +436,72 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Wk</t>
+          <t>wk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>time</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>home</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>xG</t>
+          <t>xg</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>score</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>xG.1</t>
+          <t>xg.1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Away</t>
+          <t>away</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>attendance</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>venue</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Referee</t>
+          <t>referee</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Match Report</t>
+          <t>match report</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>notes</t>
         </is>
       </c>
     </row>
@@ -6087,9 +6087,17 @@
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1–2</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1.1</v>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>Tottenham</t>
@@ -6101,10 +6109,14 @@
           <t>Selhurst Park</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Andy Madley</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Head-to-Head</t>
+          <t>Match Report</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
